--- a/data/hotels_by_city/Houston/Houston_shard_344.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_344.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d6566414-Reviews-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Suites-Houston-North-IAH-Area.h8119918.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531323447386&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=a1401d32-54d2-4aa7-a3ec-003cb2853770&amp;mctc=9&amp;exp_dp=76&amp;exp_ts=1531323447959&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,844 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r575169684-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6566414</t>
+  </si>
+  <si>
+    <t>575169684</t>
+  </si>
+  <si>
+    <t>04/23/2018</t>
+  </si>
+  <si>
+    <t>Breakfast</t>
+  </si>
+  <si>
+    <t>Mrs Sara made me feel welcome each morning that I went to breakfast. She was very attentive to the food that was being served.  Coffee was hot. The food and dining area  was well clean.  I will be back</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r558493133-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558493133</t>
+  </si>
+  <si>
+    <t>02/04/2018</t>
+  </si>
+  <si>
+    <t>Second visit to this hotel</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on our way to Galveston for our cruise in 2016 and we stayed here again on our way for another cruise just a couple of weeks ago.  We will always choose this hotel when we're in the Houston area.  The staff is always friendly, the rooms are wonderful and so beautifully decorated, and the breakfast is always good.  The parking area is always secure.  I have been very pleased with each stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded February 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 6, 2018</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel on our way to Galveston for our cruise in 2016 and we stayed here again on our way for another cruise just a couple of weeks ago.  We will always choose this hotel when we're in the Houston area.  The staff is always friendly, the rooms are wonderful and so beautifully decorated, and the breakfast is always good.  The parking area is always secure.  I have been very pleased with each stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r545607529-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>545607529</t>
+  </si>
+  <si>
+    <t>12/06/2017</t>
+  </si>
+  <si>
+    <t>average for Holiday Inn</t>
+  </si>
+  <si>
+    <t>the room was clean, this hotel does seem noisy-road noise and slamming doors inside the hotel, had to log in several times each day to the wi fi when it worked, breakfast is the typical at Holiday Inns, overall about what I expect at Holiday Inns</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r461790691-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>461790691</t>
+  </si>
+  <si>
+    <t>02/21/2017</t>
+  </si>
+  <si>
+    <t>Quaint and Tidy</t>
+  </si>
+  <si>
+    <t>I was a little skeptical at first due to the area but the hotel overall is very nice.  I did wait a few minutes for help before I got someone (did that on purpose just to see).  I had a room on the end which was nice because I like to use the stairs.  I was unable to get breakfast due to the time of my flight.  Few minutes form the airport, right off of I45, close to the Woodlands if you want to hit the mall.  Overall, I would stay here again. LOTS of space in the King Bed Room... Impressed.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded February 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2017</t>
+  </si>
+  <si>
+    <t>I was a little skeptical at first due to the area but the hotel overall is very nice.  I did wait a few minutes for help before I got someone (did that on purpose just to see).  I had a room on the end which was nice because I like to use the stairs.  I was unable to get breakfast due to the time of my flight.  Few minutes form the airport, right off of I45, close to the Woodlands if you want to hit the mall.  Overall, I would stay here again. LOTS of space in the King Bed Room... Impressed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r454612780-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454612780</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Sound sleep in a busy area</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for about a week. The best part was the quality of sleep after long tiring days work. The hotel is situated very close to I-45 and is a busy area. However, you barely realize that when you are inside the guest room.The staff was very friendly and courteous.The breakfast was very good, fresh and with a lot of variety.I definitely recommend this hotel and would definitely stay there again in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded January 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for about a week. The best part was the quality of sleep after long tiring days work. The hotel is situated very close to I-45 and is a busy area. However, you barely realize that when you are inside the guest room.The staff was very friendly and courteous.The breakfast was very good, fresh and with a lot of variety.I definitely recommend this hotel and would definitely stay there again in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r444234743-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>444234743</t>
+  </si>
+  <si>
+    <t>12/14/2016</t>
+  </si>
+  <si>
+    <t>Very nice and cleaned hotel</t>
+  </si>
+  <si>
+    <t>Really nice experience. Service was very good. The receptionist was very pleasant. She made my stay pleasant and i enjoy staying at the Holiday inn. I would recommend to stay at this hotel to all of you.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Really nice experience. Service was very good. The receptionist was very pleasant. She made my stay pleasant and i enjoy staying at the Holiday inn. I would recommend to stay at this hotel to all of you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r438040322-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438040322</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raquel is outstanding </t>
+  </si>
+  <si>
+    <t>Raquel at the front desk is outstanding!!  Upon arrival after a long day of traveling we (3 adults and 3 children under the age of 4) Raquel assigned our rooms close together and had a crib delivered right away. She was friendly, and hospitable and truly wanted to assist us and cared about the needs of our family. She spoke with us about check out time and helped with late check out instructions.  We felt like she was our friend within five minutes of our arrival. The hotel is fresh, new and clean.  We would stay again and hope Raquel is working.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2016</t>
+  </si>
+  <si>
+    <t>Raquel at the front desk is outstanding!!  Upon arrival after a long day of traveling we (3 adults and 3 children under the age of 4) Raquel assigned our rooms close together and had a crib delivered right away. She was friendly, and hospitable and truly wanted to assist us and cared about the needs of our family. She spoke with us about check out time and helped with late check out instructions.  We felt like she was our friend within five minutes of our arrival. The hotel is fresh, new and clean.  We would stay again and hope Raquel is working.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r437096969-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>437096969</t>
+  </si>
+  <si>
+    <t>11/14/2016</t>
+  </si>
+  <si>
+    <t>Pleasant stay, great shuttle drivers!</t>
+  </si>
+  <si>
+    <t>We had a little bit of a mix up with the shuttle pick up, but once that was straightened out, our stay was pleasant. The shuttle drivers were top notch. Kind, courteous and very professional. The room was clean and comfortable and the staff was very accommodating. If your flight lands mid day, be sure to schedule your shuttle pick up in advance as they do not run a continuous service. MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded November 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 16, 2016</t>
+  </si>
+  <si>
+    <t>We had a little bit of a mix up with the shuttle pick up, but once that was straightened out, our stay was pleasant. The shuttle drivers were top notch. Kind, courteous and very professional. The room was clean and comfortable and the staff was very accommodating. If your flight lands mid day, be sure to schedule your shuttle pick up in advance as they do not run a continuous service. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r431336318-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431336318</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel and Location</t>
+  </si>
+  <si>
+    <t>I started this process of booking hotel three months prior to stay. We reserved a total of seven rooms with fourteen guest total. Attending a conference with church leaders. To begin Karla(manager on duty) was amazing she ensured everyone was checked in swiftly . She was very pleasant and understanding of the different request that were made.The hotel was sold out most of our stay but the staff ensured hotel was kept clean as well breakfast was fully stocked and prepared. The day of departure from hotel Maria assisted with check out . She needed to adjust taxes to all seven rooms . Service with a smile she provided as well she was efficient with completing this task.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 27, 2016</t>
+  </si>
+  <si>
+    <t>I started this process of booking hotel three months prior to stay. We reserved a total of seven rooms with fourteen guest total. Attending a conference with church leaders. To begin Karla(manager on duty) was amazing she ensured everyone was checked in swiftly . She was very pleasant and understanding of the different request that were made.The hotel was sold out most of our stay but the staff ensured hotel was kept clean as well breakfast was fully stocked and prepared. The day of departure from hotel Maria assisted with check out . She needed to adjust taxes to all seven rooms . Service with a smile she provided as well she was efficient with completing this task.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r417493176-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>417493176</t>
+  </si>
+  <si>
+    <t>09/12/2016</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Nice, clean property...nice room.Breakfast is very good...Sara, the lady serving the breakfast was very helpful.The room was very clean and bed is comfortable.The location does not seem to be the best but it is Ok especially not far from the airport.I recommend this place.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Nice, clean property...nice room.Breakfast is very good...Sara, the lady serving the breakfast was very helpful.The room was very clean and bed is comfortable.The location does not seem to be the best but it is Ok especially not far from the airport.I recommend this place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r409622668-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>409622668</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t>Very nice new hotel</t>
+  </si>
+  <si>
+    <t>The front desk staff was so sweet, she loaned me an umbrella &amp; offered a late check out when I realized I would not make the 11:00. This hotel was within 3 minutes of the work location I was visiting that morning.Very nice room, great breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>The front desk staff was so sweet, she loaned me an umbrella &amp; offered a late check out when I realized I would not make the 11:00. This hotel was within 3 minutes of the work location I was visiting that morning.Very nice room, great breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r403431658-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>403431658</t>
+  </si>
+  <si>
+    <t>08/09/2016</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Lobby and room are modern (like new) and clean. Large room.with very comfortable bed. On the other hand, frustrating wi-fi.  Hotel provided foam ear plugs on the desk in the room.  Good thing because the A/C unit rattled loudly.  Surprised to see a security guard at front desk.  Location was not particularly close to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Lobby and room are modern (like new) and clean. Large room.with very comfortable bed. On the other hand, frustrating wi-fi.  Hotel provided foam ear plugs on the desk in the room.  Good thing because the A/C unit rattled loudly.  Surprised to see a security guard at front desk.  Location was not particularly close to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r368479582-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368479582</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>Impressed</t>
+  </si>
+  <si>
+    <t>I never thought I'd be as pleased as I was to stay at this place.  It was immaculately clean and our service was top-notch.  I got the best night's sleep of our weeks vacation. Yeah, I was a bit concerned with the "sketchy" neighborhood but all went well.  I'm hoping that all Holiday Inn Express and Suites are about the same. After a week of traveling and staying at some of the other chains, I think I've finally found the one I can depend on.  Lets cross our fingers.  Good job to all involved who made our stay comfortable!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded April 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2016</t>
+  </si>
+  <si>
+    <t>I never thought I'd be as pleased as I was to stay at this place.  It was immaculately clean and our service was top-notch.  I got the best night's sleep of our weeks vacation. Yeah, I was a bit concerned with the "sketchy" neighborhood but all went well.  I'm hoping that all Holiday Inn Express and Suites are about the same. After a week of traveling and staying at some of the other chains, I think I've finally found the one I can depend on.  Lets cross our fingers.  Good job to all involved who made our stay comfortable!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r368293509-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>368293509</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Shocker: No Mid-Day Airport Shuttle at this Airport Hotel with "Complimentary Shuttle Service"</t>
+  </si>
+  <si>
+    <t>"Stay Smart and enjoy our complimentary shuttle service to and from the George Bush Intercontinental Airport."
+That's what the hotel advertises on its website so we thought we had no worries. Almost everything about this property was just fine - excellent in fact, unless you want to utilize the airport shuttle between 1:00 p.m. and 4:00 p.m.
+We called the hotel from our originating city in South America to inform them we wouldn't be arriving until early the next morning and faced a 10-hour layover. They kindly agreed to offer us a later checkout, perhaps because of our IHG Platinum status.
+The friendly Mr. Lawrence picked us up within 20 minutes or so, and is just as amiable as other reviewers have mentioned.
+My wife immediately went to bed, while I took advantage of the pleasant breakfast spread still out. The property is clean and sparkling, and our room was spacious with a comfortable bed and efficient air conditioning.
+After a good nap we awoke, dressed, and checked out shortly after 2:00 p.m. When I mentioned to the friendly young clerk we would like to take the shuttle to the airport, she replied that the next one was at 4:00 p.m. Huh!?!
+In all of our travels (76 countries to date and elite status with three hotel chains), we have NEVER encountered a hotel shuttle that stops running for several hours in the middle of the day. (We won't be..."Stay Smart and enjoy our complimentary shuttle service to and from the George Bush Intercontinental Airport."That's what the hotel advertises on its website so we thought we had no worries. Almost everything about this property was just fine - excellent in fact, unless you want to utilize the airport shuttle between 1:00 p.m. and 4:00 p.m.We called the hotel from our originating city in South America to inform them we wouldn't be arriving until early the next morning and faced a 10-hour layover. They kindly agreed to offer us a later checkout, perhaps because of our IHG Platinum status.The friendly Mr. Lawrence picked us up within 20 minutes or so, and is just as amiable as other reviewers have mentioned.My wife immediately went to bed, while I took advantage of the pleasant breakfast spread still out. The property is clean and sparkling, and our room was spacious with a comfortable bed and efficient air conditioning.After a good nap we awoke, dressed, and checked out shortly after 2:00 p.m. When I mentioned to the friendly young clerk we would like to take the shuttle to the airport, she replied that the next one was at 4:00 p.m. Huh!?!In all of our travels (76 countries to date and elite status with three hotel chains), we have NEVER encountered a hotel shuttle that stops running for several hours in the middle of the day. (We won't be able to say that again.)Her explanation that "most people check in around 3:00 p.m." left us scratching our heads. Fortunately, we're signed up with Uber, and our car arrived before that of the other customer in the lobby who was stuck in the same situation. The uber driver was pleased to learn of the hotel shuttle schedule. She lives nearby and will now keep her "Uber on" during those hours. It's a 20-minute ride that cost somewhere around $14 with Uber, and we liked the hotel enough that we'd probably stay again, but I think the website should make clear when the shuttle runs and when it does not run. If we hadn't had Uber, and if we were short on U.S. cash after returning from nearly two weeks abroad, we might have found ourselves in a jam. I believe my rating in light of this is fair and even generous. Were it not for the shuttle shock, it would have been a four or even a five.MoreShow less</t>
+  </si>
+  <si>
+    <t>"Stay Smart and enjoy our complimentary shuttle service to and from the George Bush Intercontinental Airport."
+That's what the hotel advertises on its website so we thought we had no worries. Almost everything about this property was just fine - excellent in fact, unless you want to utilize the airport shuttle between 1:00 p.m. and 4:00 p.m.
+We called the hotel from our originating city in South America to inform them we wouldn't be arriving until early the next morning and faced a 10-hour layover. They kindly agreed to offer us a later checkout, perhaps because of our IHG Platinum status.
+The friendly Mr. Lawrence picked us up within 20 minutes or so, and is just as amiable as other reviewers have mentioned.
+My wife immediately went to bed, while I took advantage of the pleasant breakfast spread still out. The property is clean and sparkling, and our room was spacious with a comfortable bed and efficient air conditioning.
+After a good nap we awoke, dressed, and checked out shortly after 2:00 p.m. When I mentioned to the friendly young clerk we would like to take the shuttle to the airport, she replied that the next one was at 4:00 p.m. Huh!?!
+In all of our travels (76 countries to date and elite status with three hotel chains), we have NEVER encountered a hotel shuttle that stops running for several hours in the middle of the day. (We won't be..."Stay Smart and enjoy our complimentary shuttle service to and from the George Bush Intercontinental Airport."That's what the hotel advertises on its website so we thought we had no worries. Almost everything about this property was just fine - excellent in fact, unless you want to utilize the airport shuttle between 1:00 p.m. and 4:00 p.m.We called the hotel from our originating city in South America to inform them we wouldn't be arriving until early the next morning and faced a 10-hour layover. They kindly agreed to offer us a later checkout, perhaps because of our IHG Platinum status.The friendly Mr. Lawrence picked us up within 20 minutes or so, and is just as amiable as other reviewers have mentioned.My wife immediately went to bed, while I took advantage of the pleasant breakfast spread still out. The property is clean and sparkling, and our room was spacious with a comfortable bed and efficient air conditioning.After a good nap we awoke, dressed, and checked out shortly after 2:00 p.m. When I mentioned to the friendly young clerk we would like to take the shuttle to the airport, she replied that the next one was at 4:00 p.m. Huh!?!In all of our travels (76 countries to date and elite status with three hotel chains), we have NEVER encountered a hotel shuttle that stops running for several hours in the middle of the day. (We won't be able to say that again.)Her explanation that "most people check in around 3:00 p.m." left us scratching our heads. Fortunately, we're signed up with Uber, and our car arrived before that of the other customer in the lobby who was stuck in the same situation. The uber driver was pleased to learn of the hotel shuttle schedule. She lives nearby and will now keep her "Uber on" during those hours. It's a 20-minute ride that cost somewhere around $14 with Uber, and we liked the hotel enough that we'd probably stay again, but I think the website should make clear when the shuttle runs and when it does not run. If we hadn't had Uber, and if we were short on U.S. cash after returning from nearly two weeks abroad, we might have found ourselves in a jam. I believe my rating in light of this is fair and even generous. Were it not for the shuttle shock, it would have been a four or even a five.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r364692854-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>364692854</t>
+  </si>
+  <si>
+    <t>04/16/2016</t>
+  </si>
+  <si>
+    <t>Good for pre-cruise stay</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before boarding a Princess cruise. You need to be sure and have the address available when getting the shuttle as four or five different Holiday Inns have shuttles from the airport- be sure to get on the right one! The shuttle drivers were very helpful and the room a nice size. It seemed very clean and one of the larger hotel rooms we have had.
+They have a restaurant attached that was pretty good.  Since the only thing in walking distance is the restaurant attached your choices are limited. The shuttle driver offered to take us elsewhere if we wished but we were tired from traveling all day and just wanted to eat and sleep.  The next morning we took the shuttle to the airport and the driver was exceptional.  We thought we were supposed to go to terminal 4 but he was familiar with the cruise lines and waited until we got into terminal 4 and after checking with information we were told we needed to go to terminal 2.  The driver had suspected this so he didn't leave- he waited and then took us (and our bags) over to terminal 2.  Really appreciated that as trying to  move around the Houston airport (with bags and as seniors) is really a challenge. Since Princess is pulling out of Houston, this probably wont be utilized for that purpose anymore.
+We had no noise issues...We stayed here for one night before boarding a Princess cruise. You need to be sure and have the address available when getting the shuttle as four or five different Holiday Inns have shuttles from the airport- be sure to get on the right one! The shuttle drivers were very helpful and the room a nice size. It seemed very clean and one of the larger hotel rooms we have had.They have a restaurant attached that was pretty good.  Since the only thing in walking distance is the restaurant attached your choices are limited. The shuttle driver offered to take us elsewhere if we wished but we were tired from traveling all day and just wanted to eat and sleep.  The next morning we took the shuttle to the airport and the driver was exceptional.  We thought we were supposed to go to terminal 4 but he was familiar with the cruise lines and waited until we got into terminal 4 and after checking with information we were told we needed to go to terminal 2.  The driver had suspected this so he didn't leave- he waited and then took us (and our bags) over to terminal 2.  Really appreciated that as trying to  move around the Houston airport (with bags and as seniors) is really a challenge. Since Princess is pulling out of Houston, this probably wont be utilized for that purpose anymore.We had no noise issues but perhaps it was our location that made the difference.  We were on the second floor I think.....MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here for one night before boarding a Princess cruise. You need to be sure and have the address available when getting the shuttle as four or five different Holiday Inns have shuttles from the airport- be sure to get on the right one! The shuttle drivers were very helpful and the room a nice size. It seemed very clean and one of the larger hotel rooms we have had.
+They have a restaurant attached that was pretty good.  Since the only thing in walking distance is the restaurant attached your choices are limited. The shuttle driver offered to take us elsewhere if we wished but we were tired from traveling all day and just wanted to eat and sleep.  The next morning we took the shuttle to the airport and the driver was exceptional.  We thought we were supposed to go to terminal 4 but he was familiar with the cruise lines and waited until we got into terminal 4 and after checking with information we were told we needed to go to terminal 2.  The driver had suspected this so he didn't leave- he waited and then took us (and our bags) over to terminal 2.  Really appreciated that as trying to  move around the Houston airport (with bags and as seniors) is really a challenge. Since Princess is pulling out of Houston, this probably wont be utilized for that purpose anymore.
+We had no noise issues...We stayed here for one night before boarding a Princess cruise. You need to be sure and have the address available when getting the shuttle as four or five different Holiday Inns have shuttles from the airport- be sure to get on the right one! The shuttle drivers were very helpful and the room a nice size. It seemed very clean and one of the larger hotel rooms we have had.They have a restaurant attached that was pretty good.  Since the only thing in walking distance is the restaurant attached your choices are limited. The shuttle driver offered to take us elsewhere if we wished but we were tired from traveling all day and just wanted to eat and sleep.  The next morning we took the shuttle to the airport and the driver was exceptional.  We thought we were supposed to go to terminal 4 but he was familiar with the cruise lines and waited until we got into terminal 4 and after checking with information we were told we needed to go to terminal 2.  The driver had suspected this so he didn't leave- he waited and then took us (and our bags) over to terminal 2.  Really appreciated that as trying to  move around the Houston airport (with bags and as seniors) is really a challenge. Since Princess is pulling out of Houston, this probably wont be utilized for that purpose anymore.We had no noise issues but perhaps it was our location that made the difference.  We were on the second floor I think.....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r358023301-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358023301</t>
+  </si>
+  <si>
+    <t>03/23/2016</t>
+  </si>
+  <si>
+    <t>Modern, Clean, Spacious, but Extremely Noisy, Sketchy Area</t>
+  </si>
+  <si>
+    <t>Modern, Clean, Spacious, but Extremely Noisy, Sketchy Area. Could hear traffic from the interstate all the time. Fire alarm went off both mornings. Thankfully I was already up. Breakfast is not very good. On the plus side, its reasonable, newer, clean, and efficient check in. MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Modern, Clean, Spacious, but Extremely Noisy, Sketchy Area. Could hear traffic from the interstate all the time. Fire alarm went off both mornings. Thankfully I was already up. Breakfast is not very good. On the plus side, its reasonable, newer, clean, and efficient check in. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r357091802-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357091802</t>
+  </si>
+  <si>
+    <t>03/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean, contemporary and friendly </t>
+  </si>
+  <si>
+    <t>We stayed here with our family. The guest service manager was professional and called us by name each time we went through the lobby. Hotel rooms were spacious, clean and decorated nicely. There was an indoor pool but our visit was short and we did not visit. The free breakfast was great and had a nice variety. The also had free wifi. We would stay here again should our travels take us this direction. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here with our family. The guest service manager was professional and called us by name each time we went through the lobby. Hotel rooms were spacious, clean and decorated nicely. There was an indoor pool but our visit was short and we did not visit. The free breakfast was great and had a nice variety. The also had free wifi. We would stay here again should our travels take us this direction. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r354452529-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354452529</t>
+  </si>
+  <si>
+    <t>03/10/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice new clean property. </t>
+  </si>
+  <si>
+    <t>I like when you stumble on a new property. It just seems fresh. Big rooms. Pleasant staff. Only complaint is that access by car is not good. You need to enter and exit from the busy interstate 45 access road. Dangerous and awkward. Other than that a good location if you are doing business nearby like I was. MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded March 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2016</t>
+  </si>
+  <si>
+    <t>I like when you stumble on a new property. It just seems fresh. Big rooms. Pleasant staff. Only complaint is that access by car is not good. You need to enter and exit from the busy interstate 45 access road. Dangerous and awkward. Other than that a good location if you are doing business nearby like I was. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r349756231-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349756231</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Easy access to I-45</t>
+  </si>
+  <si>
+    <t>This location was comfy, with all the amenities of a Holiday Inn Express and a helpful, congenial staff.  There is a Denny's and a Mexican food restaurant nearby and a Pappa's seafood across the expressway, as well as a mall with other food services close to this location.  The bed was comfortable and the room had both a microwave and a small refrigerator.  The wifi was problem-free.  Our room on the second floor faced the unimproved land behind the hotel where we were able to see squirrels and deer separated from the hotel property by a high fence.  The only negative aspect is the somewhat awkward entrance and exit.  The inn is on a major street but you can only access the entrance by making a U-turn on Aldine-Bender and you cannot exit on Aldine-Bender.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded February 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2016</t>
+  </si>
+  <si>
+    <t>This location was comfy, with all the amenities of a Holiday Inn Express and a helpful, congenial staff.  There is a Denny's and a Mexican food restaurant nearby and a Pappa's seafood across the expressway, as well as a mall with other food services close to this location.  The bed was comfortable and the room had both a microwave and a small refrigerator.  The wifi was problem-free.  Our room on the second floor faced the unimproved land behind the hotel where we were able to see squirrels and deer separated from the hotel property by a high fence.  The only negative aspect is the somewhat awkward entrance and exit.  The inn is on a major street but you can only access the entrance by making a U-turn on Aldine-Bender and you cannot exit on Aldine-Bender.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r346893236-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>346893236</t>
+  </si>
+  <si>
+    <t>02/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very average </t>
+  </si>
+  <si>
+    <t>This hotel has great size rooms but for An overnight stay to be met airport it was average. The staff are pleasant and very accommodating. They did warn us that the area is a little unsafe....The fridge made a noise the whole night that was disturbingIf you need to stay near Intercontinental airport , I would think there are better choices MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded February 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 17, 2016</t>
+  </si>
+  <si>
+    <t>This hotel has great size rooms but for An overnight stay to be met airport it was average. The staff are pleasant and very accommodating. They did warn us that the area is a little unsafe....The fridge made a noise the whole night that was disturbingIf you need to stay near Intercontinental airport , I would think there are better choices More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r343205363-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>343205363</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Big, Comfy Rooms</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay here.  Greeted warmly and checkin was very quick.  The parking lot was very well lit in the centers, and I did not feel unsafe.  The hotel looks new or recently updated.  Room was large, lots of open space, nice layout in a 2Q room.  Basic tub/shower toilet room (again-good space), with a vanity outside.  The vanity is nice and large. I did not have noise issues.  I thought it was a very quiet stay.  I would definitely stay here again, and recommend it to others.  Quick access to DFW.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I was very pleased with my stay here.  Greeted warmly and checkin was very quick.  The parking lot was very well lit in the centers, and I did not feel unsafe.  The hotel looks new or recently updated.  Room was large, lots of open space, nice layout in a 2Q room.  Basic tub/shower toilet room (again-good space), with a vanity outside.  The vanity is nice and large. I did not have noise issues.  I thought it was a very quiet stay.  I would definitely stay here again, and recommend it to others.  Quick access to DFW.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r327128147-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327128147</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Best place to stay for Step 2 CS</t>
+  </si>
+  <si>
+    <t>For all the medical students out there looking for a place to stay before Step 2 CS, this place has it all. Free Wifi, Free Breakfast, and Free parking if you have a car, but if you don't they have a shuttle which will take you to the testing center. The center is a very easy drive just over a mile, and there's free parking at the testing center too. The bed was super comfy for a good night's sleep before the test, and breakfast was delicious and super nutritious (good brain food). The staff was so nice and wished us luck on our way out and even sent us out the door with a bottle of water and some trail mix for our breaks. So glad we stayed there!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>For all the medical students out there looking for a place to stay before Step 2 CS, this place has it all. Free Wifi, Free Breakfast, and Free parking if you have a car, but if you don't they have a shuttle which will take you to the testing center. The center is a very easy drive just over a mile, and there's free parking at the testing center too. The bed was super comfy for a good night's sleep before the test, and breakfast was delicious and super nutritious (good brain food). The staff was so nice and wished us luck on our way out and even sent us out the door with a bottle of water and some trail mix for our breaks. So glad we stayed there!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r320715108-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320715108</t>
+  </si>
+  <si>
+    <t>10/21/2015</t>
+  </si>
+  <si>
+    <t>Modern with great staff</t>
+  </si>
+  <si>
+    <t>Stayed here recently in transit through Houston. Hotel is modern, clean and well appointed. Bed was extremely comfortable after a long flight. Staff were particularly helpful. Always a smile and they were always offering suggestions or being helpful with bags, shuttles, restaurant tips, etc. There is a shuttle to/from the Airport which is about 15 mins drive away. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here recently in transit through Houston. Hotel is modern, clean and well appointed. Bed was extremely comfortable after a long flight. Staff were particularly helpful. Always a smile and they were always offering suggestions or being helpful with bags, shuttles, restaurant tips, etc. There is a shuttle to/from the Airport which is about 15 mins drive away. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r317855395-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>317855395</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highly recommend </t>
+  </si>
+  <si>
+    <t>I was looking for an affordable place near the airport due to an early morning flight. This place far exceeded my expectations! Yes it was affordable, but much more. It is nearly new and the bed was much better than other hotels costing twice as much. Tristan at the front desk was super friendly and helpful with dinner recommendations and just all around great to talk with. Manuel the van driver went out of his way to assist us. Employees hereMoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2015</t>
+  </si>
+  <si>
+    <t>I was looking for an affordable place near the airport due to an early morning flight. This place far exceeded my expectations! Yes it was affordable, but much more. It is nearly new and the bed was much better than other hotels costing twice as much. Tristan at the front desk was super friendly and helpful with dinner recommendations and just all around great to talk with. Manuel the van driver went out of his way to assist us. Employees hereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r306683732-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>306683732</t>
+  </si>
+  <si>
+    <t>09/03/2015</t>
+  </si>
+  <si>
+    <t>New hotel !!  Great free breakfast.</t>
+  </si>
+  <si>
+    <t>Everything was new,  Elevator very fast. We enjoyed the free breakfast, they even included bacon. I saw a security guard one night patrolling the parking lot, the area seemed OK, Definitely will go again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>CPNorthwest, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2015</t>
+  </si>
+  <si>
+    <t>Everything was new,  Elevator very fast. We enjoyed the free breakfast, they even included bacon. I saw a security guard one night patrolling the parking lot, the area seemed OK, Definitely will go again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r303096636-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303096636</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>Ready to book again</t>
+  </si>
+  <si>
+    <t>In town to visit family and take a road trip to San Antonio.  Only stayed here the night we arrived to Houston and the night before our return flight.  Used their shuttle service to pick us up, take us to the car rental place the next morning, and then to pick us up after we dropped off the rental. The ride, driver and timing was great even after 1am!  The hotel itself had a fresh/modern feel to it and our room was very clean, AC worked great and the bathroom had the basic things we needed plus little makeup remover towelettes which as a girl I appreciated.  The front desk staff was very nice and personable.  Since we were in and out we didn't have an opportunity to take advantage of the pool or fitness center but appreciated the breakfast and to go breakfast bag before our very early flight back.  By the way the night that we arrived we ordered dinner from the seafood restaurant next door (menu provided by front desk) who delivered it to our room and the food was excellent and at a very reasonable price. Overall good experience that the hubby and I are looking to stay again for our Labor Day weekend trip especially if they have a suite with a whirlpool tub at an unbeatable price. MoreShow less</t>
+  </si>
+  <si>
+    <t>CPNorthwest, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded August 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2015</t>
+  </si>
+  <si>
+    <t>In town to visit family and take a road trip to San Antonio.  Only stayed here the night we arrived to Houston and the night before our return flight.  Used their shuttle service to pick us up, take us to the car rental place the next morning, and then to pick us up after we dropped off the rental. The ride, driver and timing was great even after 1am!  The hotel itself had a fresh/modern feel to it and our room was very clean, AC worked great and the bathroom had the basic things we needed plus little makeup remover towelettes which as a girl I appreciated.  The front desk staff was very nice and personable.  Since we were in and out we didn't have an opportunity to take advantage of the pool or fitness center but appreciated the breakfast and to go breakfast bag before our very early flight back.  By the way the night that we arrived we ordered dinner from the seafood restaurant next door (menu provided by front desk) who delivered it to our room and the food was excellent and at a very reasonable price. Overall good experience that the hubby and I are looking to stay again for our Labor Day weekend trip especially if they have a suite with a whirlpool tub at an unbeatable price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r300193350-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300193350</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Excellent service!!</t>
+  </si>
+  <si>
+    <t>We stayed here in Feb. 2015. A bit late, but, I feel it is necessary to acknowledge the great staff at Holiday Inn Express &amp; Suites Houston Intercontinental Airport. We connected in Houston, to Huatulco, Mexico and required just a brief overnight stay, both outbound &amp; inbound, from Saskatoon, Sk., Canada. The shuttle driver, Mr. Lawrence was awesome!! We had some great laughs with him. The front desk staff were wonderful and so caring!! We mentioned we wanted to go to the Olive Garden, for supper, and they said "no problem". Since the Olive Garden was within range of the shuttle, Mr. Lawrence took us there &amp; picked us up, too. We were impressed! The accommodations were brand new and the place was very modern &amp; super clean! A great, memorable stay in Houston, Texas!!! Thank you :)MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>CPNorthwest, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded August 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here in Feb. 2015. A bit late, but, I feel it is necessary to acknowledge the great staff at Holiday Inn Express &amp; Suites Houston Intercontinental Airport. We connected in Houston, to Huatulco, Mexico and required just a brief overnight stay, both outbound &amp; inbound, from Saskatoon, Sk., Canada. The shuttle driver, Mr. Lawrence was awesome!! We had some great laughs with him. The front desk staff were wonderful and so caring!! We mentioned we wanted to go to the Olive Garden, for supper, and they said "no problem". Since the Olive Garden was within range of the shuttle, Mr. Lawrence took us there &amp; picked us up, too. We were impressed! The accommodations were brand new and the place was very modern &amp; super clean! A great, memorable stay in Houston, Texas!!! Thank you :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r295975492-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>295975492</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>Great Location Near Houston's George Bush Intercontinental Airport</t>
+  </si>
+  <si>
+    <t>This is a new, very modern, well kept, and super clean Holiday Inn Express!  The staff is super friendly and helpful.  They provide a free shuttle to airport, 30 minutes from downtown area and plenty of restaurants to choose from nearby!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a new, very modern, well kept, and super clean Holiday Inn Express!  The staff is super friendly and helpful.  They provide a free shuttle to airport, 30 minutes from downtown area and plenty of restaurants to choose from nearby!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r294661899-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>294661899</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>The Best service</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express &amp; Suites Houston Intercontinental Houston, TX. ReJean And Manuel was the best.staff  our family was blessed to have this trip  they went over and beyond for us.  The Maxwell and Jefferson Family would like to say thanks from the bottom of our hearts..................GOD BLESS YOU TWOMoreShow less</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express &amp; Suites Houston Intercontinental Houston, TX. ReJean And Manuel was the best.staff  our family was blessed to have this trip  they went over and beyond for us.  The Maxwell and Jefferson Family would like to say thanks from the bottom of our hearts..................GOD BLESS YOU TWOMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r289858360-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289858360</t>
+  </si>
+  <si>
+    <t>07/17/2015</t>
+  </si>
+  <si>
+    <t>Wrong fees &amp; Deshonest General Manager</t>
+  </si>
+  <si>
+    <t>Even if I haven't smoked on my whole life I got a Smoking Fee in this hotel. I spend up to 200 nights a year in hotels and never happened to me before.Apparently I am not the only one.When trying to fix this the General Manager Margaret keeps saying that she is sending you evidence  that she never does anyway.I recommend you to stay in other hotels and if you have any issue check with IHG Guest Relations.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Even if I haven't smoked on my whole life I got a Smoking Fee in this hotel. I spend up to 200 nights a year in hotels and never happened to me before.Apparently I am not the only one.When trying to fix this the General Manager Margaret keeps saying that she is sending you evidence  that she never does anyway.I recommend you to stay in other hotels and if you have any issue check with IHG Guest Relations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r274786575-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274786575</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>Newer hotel with nicely appointed rooms and great shuttle service to the airport.  The only compliant is there was nothing within walking distance for dinner.  However, the shuttle will take you to wherever you want.I will be staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>CPNorthwest, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Newer hotel with nicely appointed rooms and great shuttle service to the airport.  The only compliant is there was nothing within walking distance for dinner.  However, the shuttle will take you to wherever you want.I will be staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r263335020-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263335020</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>great hotel</t>
+  </si>
+  <si>
+    <t>Really nice, new hotel.  Will stay here again.The gentleman who drives the shuttle was so sweet and helpful. The front desk clerk Margarita (easy to remember her name) was so helpful and made us laugh.They both made us feel very welcome.Manager: you have good staff here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manuel C, Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded April 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2015</t>
+  </si>
+  <si>
+    <t>Really nice, new hotel.  Will stay here again.The gentleman who drives the shuttle was so sweet and helpful. The front desk clerk Margarita (easy to remember her name) was so helpful and made us laugh.They both made us feel very welcome.Manager: you have good staff here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r250194646-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>250194646</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Wonderful place with an Amazing experience</t>
+  </si>
+  <si>
+    <t>This is a newly constructed hotel built on solid fundamentals of surpassing customer expectations. The hotel is neat, clean, organized and most importantly staffed with respectful people. They will go any extent to ensure your stay is comfortable and memorable. Look no other place around if you are in Houston and are looking for a hotel which is in close proximity to IAH airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Tiffany P, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded January 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2015</t>
+  </si>
+  <si>
+    <t>This is a newly constructed hotel built on solid fundamentals of surpassing customer expectations. The hotel is neat, clean, organized and most importantly staffed with respectful people. They will go any extent to ensure your stay is comfortable and memorable. Look no other place around if you are in Houston and are looking for a hotel which is in close proximity to IAH airport.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1379,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1411,2198 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>77</v>
+      </c>
+      <c r="X5" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>76</v>
+      </c>
+      <c r="O7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O8" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" t="s">
+        <v>118</v>
+      </c>
+      <c r="L10" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>70</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>147</v>
+      </c>
+      <c r="X13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" t="s">
+        <v>154</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>155</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>156</v>
+      </c>
+      <c r="X14" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" t="s">
+        <v>161</v>
+      </c>
+      <c r="K15" t="s">
+        <v>162</v>
+      </c>
+      <c r="L15" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>60</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>165</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>166</v>
+      </c>
+      <c r="J16" t="s">
+        <v>167</v>
+      </c>
+      <c r="K16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L16" t="s">
+        <v>169</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>170</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>171</v>
+      </c>
+      <c r="X16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>175</v>
+      </c>
+      <c r="J17" t="s">
+        <v>176</v>
+      </c>
+      <c r="K17" t="s">
+        <v>177</v>
+      </c>
+      <c r="L17" t="s">
+        <v>178</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>179</v>
+      </c>
+      <c r="X17" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>179</v>
+      </c>
+      <c r="X18" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>188</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" t="s">
+        <v>190</v>
+      </c>
+      <c r="K19" t="s">
+        <v>191</v>
+      </c>
+      <c r="L19" t="s">
+        <v>192</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>70</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>70</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>210</v>
+      </c>
+      <c r="X21" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>214</v>
+      </c>
+      <c r="J22" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" t="s">
+        <v>216</v>
+      </c>
+      <c r="L22" t="s">
+        <v>217</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>218</v>
+      </c>
+      <c r="O22" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>210</v>
+      </c>
+      <c r="X22" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K24" t="s">
+        <v>230</v>
+      </c>
+      <c r="L24" t="s">
+        <v>231</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>232</v>
+      </c>
+      <c r="O24" t="s">
+        <v>70</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>237</v>
+      </c>
+      <c r="J25" t="s">
+        <v>238</v>
+      </c>
+      <c r="K25" t="s">
+        <v>239</v>
+      </c>
+      <c r="L25" t="s">
+        <v>240</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>232</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>241</v>
+      </c>
+      <c r="X25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>245</v>
+      </c>
+      <c r="J26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s">
+        <v>248</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>249</v>
+      </c>
+      <c r="O26" t="s">
+        <v>103</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>250</v>
+      </c>
+      <c r="X26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>253</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>254</v>
+      </c>
+      <c r="J27" t="s">
+        <v>255</v>
+      </c>
+      <c r="K27" t="s">
+        <v>256</v>
+      </c>
+      <c r="L27" t="s">
+        <v>257</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>258</v>
+      </c>
+      <c r="X27" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>261</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>262</v>
+      </c>
+      <c r="J28" t="s">
+        <v>263</v>
+      </c>
+      <c r="K28" t="s">
+        <v>264</v>
+      </c>
+      <c r="L28" t="s">
+        <v>265</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>266</v>
+      </c>
+      <c r="O28" t="s">
+        <v>60</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>267</v>
+      </c>
+      <c r="X28" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>270</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>271</v>
+      </c>
+      <c r="J29" t="s">
+        <v>272</v>
+      </c>
+      <c r="K29" t="s">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s">
+        <v>274</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>249</v>
+      </c>
+      <c r="O29" t="s">
+        <v>70</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>276</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>277</v>
+      </c>
+      <c r="J30" t="s">
+        <v>278</v>
+      </c>
+      <c r="K30" t="s">
+        <v>279</v>
+      </c>
+      <c r="L30" t="s">
+        <v>280</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>249</v>
+      </c>
+      <c r="O30" t="s">
+        <v>103</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>267</v>
+      </c>
+      <c r="X30" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>282</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>283</v>
+      </c>
+      <c r="J31" t="s">
+        <v>284</v>
+      </c>
+      <c r="K31" t="s">
+        <v>285</v>
+      </c>
+      <c r="L31" t="s">
+        <v>286</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>288</v>
+      </c>
+      <c r="X31" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>292</v>
+      </c>
+      <c r="J32" t="s">
+        <v>293</v>
+      </c>
+      <c r="K32" t="s">
+        <v>294</v>
+      </c>
+      <c r="L32" t="s">
+        <v>295</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>296</v>
+      </c>
+      <c r="O32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>297</v>
+      </c>
+      <c r="X32" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>300</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>301</v>
+      </c>
+      <c r="J33" t="s">
+        <v>302</v>
+      </c>
+      <c r="K33" t="s">
+        <v>303</v>
+      </c>
+      <c r="L33" t="s">
+        <v>304</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>305</v>
+      </c>
+      <c r="O33" t="s">
+        <v>103</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>306</v>
+      </c>
+      <c r="X33" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>310</v>
+      </c>
+      <c r="J34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K34" t="s">
+        <v>312</v>
+      </c>
+      <c r="L34" t="s">
+        <v>313</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>314</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>315</v>
+      </c>
+      <c r="X34" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_344.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_344.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="496">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,93 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r606462485-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>6566414</t>
+  </si>
+  <si>
+    <t>606462485</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Fantastic HIE</t>
+  </si>
+  <si>
+    <t>This is a newer hotel so it might have an edge on some of the older "models." The staff was kind and helpful; the hotel clean and modern. The parking was free and it's near a few great places to eat. The rooms and bathrooms especially are spacious and comfortable. I enjoyed my time there as a business traveler and only wished I could have stayed an extra day to check out the pool and relax. The continental breakfast included meat and eggs. Apparently they switch back and forth from sausage to bacon; I missed bacon day, but I can't complain. I would definitely stay here again and recommend the property. The location is great and not too close to the city center. Made for an easy getaway back towards Dallas. MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>This is a newer hotel so it might have an edge on some of the older "models." The staff was kind and helpful; the hotel clean and modern. The parking was free and it's near a few great places to eat. The rooms and bathrooms especially are spacious and comfortable. I enjoyed my time there as a business traveler and only wished I could have stayed an extra day to check out the pool and relax. The continental breakfast included meat and eggs. Apparently they switch back and forth from sausage to bacon; I missed bacon day, but I can't complain. I would definitely stay here again and recommend the property. The location is great and not too close to the city center. Made for an easy getaway back towards Dallas. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r595650931-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>595650931</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Friendly helpful staff! </t>
+  </si>
+  <si>
+    <t>Staff was exceptionally helpful.  I booked the reservations over the phone, and the was a mix up with the dates. Carla the receptionist identified and fixed the mistake and still kept my low rate. The hotel is new with free wifi, and the rooms were clean. All in all a great stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Margaret S, Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2018</t>
+  </si>
+  <si>
+    <t>Staff was exceptionally helpful.  I booked the reservations over the phone, and the was a mix up with the dates. Carla the receptionist identified and fixed the mistake and still kept my low rate. The hotel is new with free wifi, and the rooms were clean. All in all a great stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r592417922-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592417922</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Excellent Hotel - Handicap Friendly</t>
+  </si>
+  <si>
+    <t>This is great hotel. It is at I-45 and the outer loop. Even though it is right off the highway my room was perfectly quiet. I was 1 room away from the elevator and didn't hear a single chime. The room was clean, nicely decorated, and had everything a traveler could need, from a good sized mini fridge to a hair dryer, iron, microwave, coffee pot, desk...There is a fantastic hot breakfast with bacon, omelets, turkey sausage, biscuits, gravy, real scrambled eggs (not that powdered crap other places serve), fresh pancakes, cinnamon rolls and then everything continental breakfast usually has. There isn't room service, but there is sundry shop where you can get microwave meals, desserts, snacks, and necessities you may have left at home. The hotel provides complimentary basics such as a razor, toothbrush, and shaving cream. Many restaurants are nearby, within 2 miles. Even the basic rooms have a low bathtub and bar to help getting out and the handicap parking is at the front door without curbs to contend with. Staff was professional and pleasant. There are two drawbacks I found to this location. 1) You have to go north on I-45 and make a u-turn to go south. It isn't a super big deal, but was an unexpected inconvenience. 2) At least my room did not have blackout curtains and the stores directly across the street had bright signs that illuminated my room somewhat. This is...This is great hotel. It is at I-45 and the outer loop. Even though it is right off the highway my room was perfectly quiet. I was 1 room away from the elevator and didn't hear a single chime. The room was clean, nicely decorated, and had everything a traveler could need, from a good sized mini fridge to a hair dryer, iron, microwave, coffee pot, desk...There is a fantastic hot breakfast with bacon, omelets, turkey sausage, biscuits, gravy, real scrambled eggs (not that powdered crap other places serve), fresh pancakes, cinnamon rolls and then everything continental breakfast usually has. There isn't room service, but there is sundry shop where you can get microwave meals, desserts, snacks, and necessities you may have left at home. The hotel provides complimentary basics such as a razor, toothbrush, and shaving cream. Many restaurants are nearby, within 2 miles. Even the basic rooms have a low bathtub and bar to help getting out and the handicap parking is at the front door without curbs to contend with. Staff was professional and pleasant. There are two drawbacks I found to this location. 1) You have to go north on I-45 and make a u-turn to go south. It isn't a super big deal, but was an unexpected inconvenience. 2) At least my room did not have blackout curtains and the stores directly across the street had bright signs that illuminated my room somewhat. This is not a drawback, just an FYI. It looks like the AC is controlled on the unit, but it isn't. There is thermostat on the wall. AC worked fantastic. It did a great job of dehumidifying the room also, which if you have ever been to Houston you know is a big deal!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This is great hotel. It is at I-45 and the outer loop. Even though it is right off the highway my room was perfectly quiet. I was 1 room away from the elevator and didn't hear a single chime. The room was clean, nicely decorated, and had everything a traveler could need, from a good sized mini fridge to a hair dryer, iron, microwave, coffee pot, desk...There is a fantastic hot breakfast with bacon, omelets, turkey sausage, biscuits, gravy, real scrambled eggs (not that powdered crap other places serve), fresh pancakes, cinnamon rolls and then everything continental breakfast usually has. There isn't room service, but there is sundry shop where you can get microwave meals, desserts, snacks, and necessities you may have left at home. The hotel provides complimentary basics such as a razor, toothbrush, and shaving cream. Many restaurants are nearby, within 2 miles. Even the basic rooms have a low bathtub and bar to help getting out and the handicap parking is at the front door without curbs to contend with. Staff was professional and pleasant. There are two drawbacks I found to this location. 1) You have to go north on I-45 and make a u-turn to go south. It isn't a super big deal, but was an unexpected inconvenience. 2) At least my room did not have blackout curtains and the stores directly across the street had bright signs that illuminated my room somewhat. This is...This is great hotel. It is at I-45 and the outer loop. Even though it is right off the highway my room was perfectly quiet. I was 1 room away from the elevator and didn't hear a single chime. The room was clean, nicely decorated, and had everything a traveler could need, from a good sized mini fridge to a hair dryer, iron, microwave, coffee pot, desk...There is a fantastic hot breakfast with bacon, omelets, turkey sausage, biscuits, gravy, real scrambled eggs (not that powdered crap other places serve), fresh pancakes, cinnamon rolls and then everything continental breakfast usually has. There isn't room service, but there is sundry shop where you can get microwave meals, desserts, snacks, and necessities you may have left at home. The hotel provides complimentary basics such as a razor, toothbrush, and shaving cream. Many restaurants are nearby, within 2 miles. Even the basic rooms have a low bathtub and bar to help getting out and the handicap parking is at the front door without curbs to contend with. Staff was professional and pleasant. There are two drawbacks I found to this location. 1) You have to go north on I-45 and make a u-turn to go south. It isn't a super big deal, but was an unexpected inconvenience. 2) At least my room did not have blackout curtains and the stores directly across the street had bright signs that illuminated my room somewhat. This is not a drawback, just an FYI. It looks like the AC is controlled on the unit, but it isn't. There is thermostat on the wall. AC worked fantastic. It did a great job of dehumidifying the room also, which if you have ever been to Houston you know is a big deal!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r575169684-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>6566414</t>
-  </si>
-  <si>
     <t>575169684</t>
   </si>
   <si>
@@ -177,9 +252,6 @@
     <t>April 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r558493133-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -231,6 +303,60 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r533160100-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>533160100</t>
+  </si>
+  <si>
+    <t>10/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great and comfortable stay </t>
+  </si>
+  <si>
+    <t>Couple of nights here before our return to UK,and what a great stay, staff were brilliant and the Hotel being fairly new was outstanding. Our room was very large and comfortable, everything you need, and if there isn't, you only need to tell them. There are a couple of restaurants nearby, and many more within a  $10 Uber ride. Breakfast was good and there are ice and vending machines on all floors. Free shuttle from and to the airport. Would definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2017</t>
+  </si>
+  <si>
+    <t>Couple of nights here before our return to UK,and what a great stay, staff were brilliant and the Hotel being fairly new was outstanding. Our room was very large and comfortable, everything you need, and if there isn't, you only need to tell them. There are a couple of restaurants nearby, and many more within a  $10 Uber ride. Breakfast was good and there are ice and vending machines on all floors. Free shuttle from and to the airport. Would definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r464861603-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464861603</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>Tried a new hotel and was pleased I did so!</t>
+  </si>
+  <si>
+    <t>I have stayed at several IHG properties around the airport.  Usually the night before flying out.  Two of which I will not stay at again.  The experience at this one started with the best shuttle driver I have had in a very long time.  He was extremely courteous to the customers and other drivers.  The person at the front desk was also very friendly.  The room was clean and I slept well.  The shuttle driver int he morning was also very friendly.  I will definitely use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded March 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2017</t>
+  </si>
+  <si>
+    <t>I have stayed at several IHG properties around the airport.  Usually the night before flying out.  Two of which I will not stay at again.  The experience at this one started with the best shuttle driver I have had in a very long time.  He was extremely courteous to the customers and other drivers.  The person at the front desk was also very friendly.  The room was clean and I slept well.  The shuttle driver int he morning was also very friendly.  I will definitely use this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r461790691-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -309,6 +435,57 @@
     <t>Really nice experience. Service was very good. The receptionist was very pleasant. She made my stay pleasant and i enjoy staying at the Holiday inn. I would recommend to stay at this hotel to all of you.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r443918913-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443918913</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Always a great stay</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express has really become my go to hotel when I'm traveling. The staff is always friendly and the rooms are always clean. I love the black out blinds in the room too. I didn't eat the breakfast, so I cannot comment on that, but the room did have a Kureg (sp) coffee pot. MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2016</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express has really become my go to hotel when I'm traveling. The staff is always friendly and the rooms are always clean. I love the black out blinds in the room too. I didn't eat the breakfast, so I cannot comment on that, but the room did have a Kureg (sp) coffee pot. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r443218024-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443218024</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay with a great shuttle driver</t>
+  </si>
+  <si>
+    <t>We had a great time at this hotel. Staff were friendly, the room was clean and pleasant and most of all, the shuttle driver was a fantastic!  The location was good, with a Subway that's walking distance. I would come back to this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>We had a great time at this hotel. Staff were friendly, the room was clean and pleasant and most of all, the shuttle driver was a fantastic!  The location was good, with a Subway that's walking distance. I would come back to this hotel again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r438040322-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -327,9 +504,6 @@
     <t>November 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded November 18, 2016</t>
   </si>
   <si>
@@ -378,9 +552,6 @@
     <t>I started this process of booking hotel three months prior to stay. We reserved a total of seven rooms with fourteen guest total. Attending a conference with church leaders. To begin Karla(manager on duty) was amazing she ensured everyone was checked in swiftly . She was very pleasant and understanding of the different request that were made.The hotel was sold out most of our stay but the staff ensured hotel was kept clean as well breakfast was fully stocked and prepared. The day of departure from hotel Maria assisted with check out . She needed to adjust taxes to all seven rooms . Service with a smile she provided as well she was efficient with completing this task.MoreShow less</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
     <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 27, 2016</t>
   </si>
   <si>
@@ -390,6 +561,54 @@
     <t>I started this process of booking hotel three months prior to stay. We reserved a total of seven rooms with fourteen guest total. Attending a conference with church leaders. To begin Karla(manager on duty) was amazing she ensured everyone was checked in swiftly . She was very pleasant and understanding of the different request that were made.The hotel was sold out most of our stay but the staff ensured hotel was kept clean as well breakfast was fully stocked and prepared. The day of departure from hotel Maria assisted with check out . She needed to adjust taxes to all seven rooms . Service with a smile she provided as well she was efficient with completing this task.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r430705094-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>430705094</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Excellent service, nice hotel</t>
+  </si>
+  <si>
+    <t>We arrived around 6:30 in the evening. There is a free shuttle from the airport and you have to call the hotel to let them know when to pick you up. Our driver was friendly and the trip was a bout a ten minute drive from the airport.  Check in was excellent and we were provided with all sorts of info re area restaurants, hotel services etc. The shuttle is available for you to go to any location within a 5 mile radius of the Hotel so that was great as we did not have a car. There is an indoor pool which we did not use. The room was a decent size and the bed was comfortable. Breakfast is provided and there was a fair amount of food to choose from.  They have a large breakfast area with TV and newspapers.  Check out was quick and easy and we had a very pleasant stay at this hotel.  All of the drivers (Lawrence) was very friendly and helpful. We would stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 24, 2016</t>
+  </si>
+  <si>
+    <t>We arrived around 6:30 in the evening. There is a free shuttle from the airport and you have to call the hotel to let them know when to pick you up. Our driver was friendly and the trip was a bout a ten minute drive from the airport.  Check in was excellent and we were provided with all sorts of info re area restaurants, hotel services etc. The shuttle is available for you to go to any location within a 5 mile radius of the Hotel so that was great as we did not have a car. There is an indoor pool which we did not use. The room was a decent size and the bed was comfortable. Breakfast is provided and there was a fair amount of food to choose from.  They have a large breakfast area with TV and newspapers.  Check out was quick and easy and we had a very pleasant stay at this hotel.  All of the drivers (Lawrence) was very friendly and helpful. We would stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r429673900-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>429673900</t>
+  </si>
+  <si>
+    <t>10/19/2016</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>A stay at this hotel near Houston Intercontinental airport for a quick business trip was a pleasure.  I especially appreciated the driver of the airport shuttle, Lawrence, who not only took me to my appointment nearby, but picked me up even though the appointment ran late, and got me to the airport on time.  His strong customer service really made the whole trip.  The hotel itself is new and was very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2016</t>
+  </si>
+  <si>
+    <t>A stay at this hotel near Houston Intercontinental airport for a quick business trip was a pleasure.  I especially appreciated the driver of the airport shuttle, Lawrence, who not only took me to my appointment nearby, but picked me up even though the appointment ran late, and got me to the airport on time.  His strong customer service really made the whole trip.  The hotel itself is new and was very comfortable.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r417493176-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -466,6 +685,57 @@
   </si>
   <si>
     <t>Lobby and room are modern (like new) and clean. Large room.with very comfortable bed. On the other hand, frustrating wi-fi.  Hotel provided foam ear plugs on the desk in the room.  Good thing because the A/C unit rattled loudly.  Surprised to see a security guard at front desk.  Location was not particularly close to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r394592043-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>394592043</t>
+  </si>
+  <si>
+    <t>07/20/2016</t>
+  </si>
+  <si>
+    <t>more than expected</t>
+  </si>
+  <si>
+    <t>this was only two nights but the BEST hotel in a medium price range I ever had in Houston! I thought it would be loud but the isolation of the windows is perfect. Everything is brand new so the beds were not sagging and the carpet was clean. Someone in the design department did a great job with the details ( e.g. tile in the entryway of the room, TV placed that way on the wall you can actually see everything, Shower curtain with magnets in the seam so it will stick to the tub not to you...) and so I had a great time!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>this was only two nights but the BEST hotel in a medium price range I ever had in Houston! I thought it would be loud but the isolation of the windows is perfect. Everything is brand new so the beds were not sagging and the carpet was clean. Someone in the design department did a great job with the details ( e.g. tile in the entryway of the room, TV placed that way on the wall you can actually see everything, Shower curtain with magnets in the seam so it will stick to the tub not to you...) and so I had a great time!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r391133893-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>391133893</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel and was very secure. The room we had was very nice, clean, and comfortable. I didn't try the pool, but the kids said it was cold and gross. The breakfast every morning was well stocked and tasted great. The front desk was very kind and was able to give us a great suggestion for dinner. MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel and was very secure. The room we had was very nice, clean, and comfortable. I didn't try the pool, but the kids said it was cold and gross. The breakfast every morning was well stocked and tasted great. The front desk was very kind and was able to give us a great suggestion for dinner. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r368479582-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
@@ -556,6 +826,57 @@
 We had no noise issues...We stayed here for one night before boarding a Princess cruise. You need to be sure and have the address available when getting the shuttle as four or five different Holiday Inns have shuttles from the airport- be sure to get on the right one! The shuttle drivers were very helpful and the room a nice size. It seemed very clean and one of the larger hotel rooms we have had.They have a restaurant attached that was pretty good.  Since the only thing in walking distance is the restaurant attached your choices are limited. The shuttle driver offered to take us elsewhere if we wished but we were tired from traveling all day and just wanted to eat and sleep.  The next morning we took the shuttle to the airport and the driver was exceptional.  We thought we were supposed to go to terminal 4 but he was familiar with the cruise lines and waited until we got into terminal 4 and after checking with information we were told we needed to go to terminal 2.  The driver had suspected this so he didn't leave- he waited and then took us (and our bags) over to terminal 2.  Really appreciated that as trying to  move around the Houston airport (with bags and as seniors) is really a challenge. Since Princess is pulling out of Houston, this probably wont be utilized for that purpose anymore.We had no noise issues but perhaps it was our location that made the difference.  We were on the second floor I think.....More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r360908768-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>360908768</t>
+  </si>
+  <si>
+    <t>04/02/2016</t>
+  </si>
+  <si>
+    <t>Safe Property - Questionable Location</t>
+  </si>
+  <si>
+    <t>Security Guard on-site. Surveillance video everywhere.  Staff confident our vehicle and trailer was safe.  I guess so!  It would have taken a calculated plan to break the law on this site.  We asked the hotel about walking to dine somewhere and was advised otherwise.  I felt safe without a doubt!  Great hotel - brand new facility. Great staff.  I would stay here again!  Just make sure you don't have to walk. I guess.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2016</t>
+  </si>
+  <si>
+    <t>Security Guard on-site. Surveillance video everywhere.  Staff confident our vehicle and trailer was safe.  I guess so!  It would have taken a calculated plan to break the law on this site.  We asked the hotel about walking to dine somewhere and was advised otherwise.  I felt safe without a doubt!  Great hotel - brand new facility. Great staff.  I would stay here again!  Just make sure you don't have to walk. I guess.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r358337160-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358337160</t>
+  </si>
+  <si>
+    <t>03/24/2016</t>
+  </si>
+  <si>
+    <t>Fire Alarm went off at 6:30AM!!!</t>
+  </si>
+  <si>
+    <t>The fire alarm went off at 6:30AM!!! The one morning that I was able to sleep in!!! Then said something to 3 employees and they acted like they did not care!! I see from another review the alarm has gone off consecutive days-I guess I'm glad I was at work or otherwise I would have been furious! The hotel is clean, but the only staff person I consistently encountered that was helpful is the young lady at breakfast every morning. Always had to wait for the front desk person to come from the back from the time I checked in until I checked out. You get what a IHG property is known for, however this is the first time I've had to search for the hotel staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded March 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2016</t>
+  </si>
+  <si>
+    <t>The fire alarm went off at 6:30AM!!! The one morning that I was able to sleep in!!! Then said something to 3 employees and they acted like they did not care!! I see from another review the alarm has gone off consecutive days-I guess I'm glad I was at work or otherwise I would have been furious! The hotel is clean, but the only staff person I consistently encountered that was helpful is the young lady at breakfast every morning. Always had to wait for the front desk person to come from the back from the time I checked in until I checked out. You get what a IHG property is known for, however this is the first time I've had to search for the hotel staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r358023301-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -571,12 +892,6 @@
     <t>Modern, Clean, Spacious, but Extremely Noisy, Sketchy Area. Could hear traffic from the interstate all the time. Fire alarm went off both mornings. Thankfully I was already up. Breakfast is not very good. On the plus side, its reasonable, newer, clean, and efficient check in. MoreShow less</t>
   </si>
   <si>
-    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded March 30, 2016</t>
-  </si>
-  <si>
-    <t>Responded March 30, 2016</t>
-  </si>
-  <si>
     <t>Modern, Clean, Spacious, but Extremely Noisy, Sketchy Area. Could hear traffic from the interstate all the time. Fire alarm went off both mornings. Thankfully I was already up. Breakfast is not very good. On the plus side, its reasonable, newer, clean, and efficient check in. More</t>
   </si>
   <si>
@@ -622,6 +937,57 @@
     <t>I like when you stumble on a new property. It just seems fresh. Big rooms. Pleasant staff. Only complaint is that access by car is not good. You need to enter and exit from the busy interstate 45 access road. Dangerous and awkward. Other than that a good location if you are doing business nearby like I was. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r353965429-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>353965429</t>
+  </si>
+  <si>
+    <t>03/08/2016</t>
+  </si>
+  <si>
+    <t>Excellent Hotel and Staff</t>
+  </si>
+  <si>
+    <t>Spent two nights here and could not fault the hotel or staff in anyway. Maria checked me in and at first saying there was no available upgrade she managed to locate me a suite, great room plenty of space and the bed was so comfortable both nights I slept perfectly. The bathroom and shower were excellent. The hotel has a great fitness room and also a small pool and a well stocked store with snacks for sale. The business centre had everything you need including envelopes. The breakfast was excellent and everything was restocked and kept fresh and hot and again a smiling face The hotel is a year old but still looks like its only a week old, but its not the building that. make this hotel but the staff, every single member of staff smiled and were polite. Could not fault this hotel in anyway and easy access to I-45 for my onward journey.MoreShow less</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2016</t>
+  </si>
+  <si>
+    <t>Spent two nights here and could not fault the hotel or staff in anyway. Maria checked me in and at first saying there was no available upgrade she managed to locate me a suite, great room plenty of space and the bed was so comfortable both nights I slept perfectly. The bathroom and shower were excellent. The hotel has a great fitness room and also a small pool and a well stocked store with snacks for sale. The business centre had everything you need including envelopes. The breakfast was excellent and everything was restocked and kept fresh and hot and again a smiling face The hotel is a year old but still looks like its only a week old, but its not the building that. make this hotel but the staff, every single member of staff smiled and were polite. Could not fault this hotel in anyway and easy access to I-45 for my onward journey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r350418720-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350418720</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>over night with gravy</t>
+  </si>
+  <si>
+    <t>Overnight with gravyWe had an overnight connection in Houston and picked this Holiday Inn Express. We picked one that was a little farther from the airport to get out of the airport zone, and I think this one was. Maybe next time we would call the shuttle from the plane so we didn’t have to wait for it so long. Everything at check in was smooth and friendly, the hotel was clean and well kept. Our room was clean and modern, the beds were very comfortable, and the shower had decent pressure. We stepped next door to the Oyster bar for a quick beer, it seemed more like a cantina, there was even a mariachi band playing. Their complimentary breakfast is similar to other Holiday in expresses with turkey sausage and a pancake making machine. The absolute highlight had to be the biscuits and gravy they had, wasn’t like mama used to make, but we thought it was pretty fun to be in Texas eating biscuits and gravy for breakfast.The hotel is far enough from the Airport the planes don’t bother you, we left 2 hours before our flight and we had lots of time to get through security do some shopping and wait at our gate.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Overnight with gravyWe had an overnight connection in Houston and picked this Holiday Inn Express. We picked one that was a little farther from the airport to get out of the airport zone, and I think this one was. Maybe next time we would call the shuttle from the plane so we didn’t have to wait for it so long. Everything at check in was smooth and friendly, the hotel was clean and well kept. Our room was clean and modern, the beds were very comfortable, and the shower had decent pressure. We stepped next door to the Oyster bar for a quick beer, it seemed more like a cantina, there was even a mariachi band playing. Their complimentary breakfast is similar to other Holiday in expresses with turkey sausage and a pancake making machine. The absolute highlight had to be the biscuits and gravy they had, wasn’t like mama used to make, but we thought it was pretty fun to be in Texas eating biscuits and gravy for breakfast.The hotel is far enough from the Airport the planes don’t bother you, we left 2 hours before our flight and we had lots of time to get through security do some shopping and wait at our gate.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r349756231-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -688,30 +1054,63 @@
     <t>I was very pleased with my stay here.  Greeted warmly and checkin was very quick.  The parking lot was very well lit in the centers, and I did not feel unsafe.  The hotel looks new or recently updated.  Room was large, lots of open space, nice layout in a 2Q room.  Basic tub/shower toilet room (again-good space), with a vanity outside.  The vanity is nice and large. I did not have noise issues.  I thought it was a very quiet stay.  I would definitely stay here again, and recommend it to others.  Quick access to DFW.MoreShow less</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>I was very pleased with my stay here.  Greeted warmly and checkin was very quick.  The parking lot was very well lit in the centers, and I did not feel unsafe.  The hotel looks new or recently updated.  Room was large, lots of open space, nice layout in a 2Q room.  Basic tub/shower toilet room (again-good space), with a vanity outside.  The vanity is nice and large. I did not have noise issues.  I thought it was a very quiet stay.  I would definitely stay here again, and recommend it to others.  Quick access to DFW.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r329534651-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329534651</t>
+  </si>
+  <si>
+    <t>11/28/2015</t>
+  </si>
+  <si>
+    <t>One night before a cruise</t>
+  </si>
+  <si>
+    <t>The room was fine, definitely in keeping with other Holiday Inn Express Hotels. We chose this hotel because the website said there was a shuttle from the airport to the hotel. Beware! Call the hotel to see about the shuttle! Thank goodness I thought to do so! It was weird, first when I called about the shuttle I was asked if I had a reservation, and what my name was the after that I was told there was no shuttle tonight, and that we would have to take a taxi. Why was that information needed just to then tell me no shuttle available? No explanation at all and the taxi fare was $25-something to factor into the affordability of the hotel you select.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>The room was fine, definitely in keeping with other Holiday Inn Express Hotels. We chose this hotel because the website said there was a shuttle from the airport to the hotel. Beware! Call the hotel to see about the shuttle! Thank goodness I thought to do so! It was weird, first when I called about the shuttle I was asked if I had a reservation, and what my name was the after that I was told there was no shuttle tonight, and that we would have to take a taxi. Why was that information needed just to then tell me no shuttle available? No explanation at all and the taxi fare was $25-something to factor into the affordability of the hotel you select.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r327191164-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327191164</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Great Stay - Questionable Neighborhood</t>
+  </si>
+  <si>
+    <t>The hotel itself is new and nice. Service was great! Rooms are very clean and spacious.Went swimming one morning in the indoor pool and noticed two small snakes.Free Breakfast was so-so.The neighborhood is very sketchy. I wouldn't walk alone day or night.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r327128147-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
     <t>327128147</t>
   </si>
   <si>
-    <t>11/16/2015</t>
-  </si>
-  <si>
     <t>Best place to stay for Step 2 CS</t>
   </si>
   <si>
     <t>For all the medical students out there looking for a place to stay before Step 2 CS, this place has it all. Free Wifi, Free Breakfast, and Free parking if you have a car, but if you don't they have a shuttle which will take you to the testing center. The center is a very easy drive just over a mile, and there's free parking at the testing center too. The bed was super comfy for a good night's sleep before the test, and breakfast was delicious and super nutritious (good brain food). The staff was so nice and wished us luck on our way out and even sent us out the door with a bottle of water and some trail mix for our breaks. So glad we stayed there!MoreShow less</t>
   </si>
   <si>
-    <t>November 2015</t>
-  </si>
-  <si>
     <t>For all the medical students out there looking for a place to stay before Step 2 CS, this place has it all. Free Wifi, Free Breakfast, and Free parking if you have a car, but if you don't they have a shuttle which will take you to the testing center. The center is a very easy drive just over a mile, and there's free parking at the testing center too. The bed was super comfy for a good night's sleep before the test, and breakfast was delicious and super nutritious (good brain food). The staff was so nice and wished us luck on our way out and even sent us out the door with a bottle of water and some trail mix for our breaks. So glad we stayed there!More</t>
   </si>
   <si>
@@ -766,6 +1165,59 @@
     <t>I was looking for an affordable place near the airport due to an early morning flight. This place far exceeded my expectations! Yes it was affordable, but much more. It is nearly new and the bed was much better than other hotels costing twice as much. Tristan at the front desk was super friendly and helpful with dinner recommendations and just all around great to talk with. Manuel the van driver went out of his way to assist us. Employees hereMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r315121683-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>315121683</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Flight canceled found hotel based on Trip Advisor</t>
+  </si>
+  <si>
+    <t>Our flight was delayed and we missed our connection.  Was able to book last rooms at hotel.  They have a great shuttle to/from airport.  We didn't land until midnight and our driver, Manuel, picked us up at airport and stopped at restaurant so we could grab a bite to eat.  Great staff and will remember next needing hotel by Houston Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Margaret S, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2015</t>
+  </si>
+  <si>
+    <t>Our flight was delayed and we missed our connection.  Was able to book last rooms at hotel.  They have a great shuttle to/from airport.  We didn't land until midnight and our driver, Manuel, picked us up at airport and stopped at restaurant so we could grab a bite to eat.  Great staff and will remember next needing hotel by Houston Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r313464458-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313464458</t>
+  </si>
+  <si>
+    <t>09/25/2015</t>
+  </si>
+  <si>
+    <t>Cute chic hotel</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel for a very reasonable price. We stayed there 3 nights and it was perfect for our short stay. It was located next to this oyster bar which we wished we could have stopped by but the bar is literally a few steps away. 
+Customer service was pleasant, workers were very helpful. We even found out that all their proceeds from their little snack shop goes towards a charity. Even though we could have gone down the block to the liquor store to purchase water, snacks, etc...I felt it was going towards a great cause by purchasing from the snack shop. 
+We weren't able to wake up early enough for their complimentary breakfast (630a-930) but on our last day we had to check out early so we were able to grab something to go. For a complimentary breakfast without extra cost it was good enough. Cereal, oatmeal, numerous muffins and bagels, pancakes, and they even had a little mini cinnamon roll station with to go boxes. 
+What stood out about the hotel was the decor. I guess the hotel was recently newly renovated and it looks very chic. Loved the color and ambiance.
+Our room was very nice with a with a VERY COMFORTABLE king bed and a large bathroom. The only downside about the room was that it did not have enough lighting. The only lighting provided in the room were 3 table lamps,...This was a very nice hotel for a very reasonable price. We stayed there 3 nights and it was perfect for our short stay. It was located next to this oyster bar which we wished we could have stopped by but the bar is literally a few steps away. Customer service was pleasant, workers were very helpful. We even found out that all their proceeds from their little snack shop goes towards a charity. Even though we could have gone down the block to the liquor store to purchase water, snacks, etc...I felt it was going towards a great cause by purchasing from the snack shop. We weren't able to wake up early enough for their complimentary breakfast (630a-930) but on our last day we had to check out early so we were able to grab something to go. For a complimentary breakfast without extra cost it was good enough. Cereal, oatmeal, numerous muffins and bagels, pancakes, and they even had a little mini cinnamon roll station with to go boxes. What stood out about the hotel was the decor. I guess the hotel was recently newly renovated and it looks very chic. Loved the color and ambiance.Our room was very nice with a with a VERY COMFORTABLE king bed and a large bathroom. The only downside about the room was that it did not have enough lighting. The only lighting provided in the room were 3 table lamps, a hallway lamp and the natural light (limited) from the window. I'm a woman who likes a little more light for my hair and makeup; if there was a large lamp or an overhead light above the bed it would have prevented me from trying to squeeze next to the window to do my makeup then go back in the bathroom and hunch over the sink to do my hair. Another plus is the indoor pool which no one used. It wasn't as warm as I liked but I loved the option of having one. Would definitely stay there again without a doubt!MoreShow less</t>
+  </si>
+  <si>
+    <t>This was a very nice hotel for a very reasonable price. We stayed there 3 nights and it was perfect for our short stay. It was located next to this oyster bar which we wished we could have stopped by but the bar is literally a few steps away. 
+Customer service was pleasant, workers were very helpful. We even found out that all their proceeds from their little snack shop goes towards a charity. Even though we could have gone down the block to the liquor store to purchase water, snacks, etc...I felt it was going towards a great cause by purchasing from the snack shop. 
+We weren't able to wake up early enough for their complimentary breakfast (630a-930) but on our last day we had to check out early so we were able to grab something to go. For a complimentary breakfast without extra cost it was good enough. Cereal, oatmeal, numerous muffins and bagels, pancakes, and they even had a little mini cinnamon roll station with to go boxes. 
+What stood out about the hotel was the decor. I guess the hotel was recently newly renovated and it looks very chic. Loved the color and ambiance.
+Our room was very nice with a with a VERY COMFORTABLE king bed and a large bathroom. The only downside about the room was that it did not have enough lighting. The only lighting provided in the room were 3 table lamps,...This was a very nice hotel for a very reasonable price. We stayed there 3 nights and it was perfect for our short stay. It was located next to this oyster bar which we wished we could have stopped by but the bar is literally a few steps away. Customer service was pleasant, workers were very helpful. We even found out that all their proceeds from their little snack shop goes towards a charity. Even though we could have gone down the block to the liquor store to purchase water, snacks, etc...I felt it was going towards a great cause by purchasing from the snack shop. We weren't able to wake up early enough for their complimentary breakfast (630a-930) but on our last day we had to check out early so we were able to grab something to go. For a complimentary breakfast without extra cost it was good enough. Cereal, oatmeal, numerous muffins and bagels, pancakes, and they even had a little mini cinnamon roll station with to go boxes. What stood out about the hotel was the decor. I guess the hotel was recently newly renovated and it looks very chic. Loved the color and ambiance.Our room was very nice with a with a VERY COMFORTABLE king bed and a large bathroom. The only downside about the room was that it did not have enough lighting. The only lighting provided in the room were 3 table lamps, a hallway lamp and the natural light (limited) from the window. I'm a woman who likes a little more light for my hair and makeup; if there was a large lamp or an overhead light above the bed it would have prevented me from trying to squeeze next to the window to do my makeup then go back in the bathroom and hunch over the sink to do my hair. Another plus is the indoor pool which no one used. It wasn't as warm as I liked but I loved the option of having one. Would definitely stay there again without a doubt!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r306683732-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -844,15 +1296,51 @@
     <t>We stayed here in Feb. 2015. A bit late, but, I feel it is necessary to acknowledge the great staff at Holiday Inn Express &amp; Suites Houston Intercontinental Airport. We connected in Houston, to Huatulco, Mexico and required just a brief overnight stay, both outbound &amp; inbound, from Saskatoon, Sk., Canada. The shuttle driver, Mr. Lawrence was awesome!! We had some great laughs with him. The front desk staff were wonderful and so caring!! We mentioned we wanted to go to the Olive Garden, for supper, and they said "no problem". Since the Olive Garden was within range of the shuttle, Mr. Lawrence took us there &amp; picked us up, too. We were impressed! The accommodations were brand new and the place was very modern &amp; super clean! A great, memorable stay in Houston, Texas!!! Thank you :)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r298076302-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298076302</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel, bad wi-fi</t>
+  </si>
+  <si>
+    <t>Pros:  -New hotel (new carpeting in room, nice furnishings), -good workout facilities (new equipment), --friendly staff-convenient to IAH airport.  Cons:  -poor location (the area does not match the 'new feel' of the hotel), -82 degrees in the hallways (top floor had no A/C in the hallway for the entire week of my stay although it was more of an annoyance than anything else)-hot water takes several minutes to heat up before it's shower temp (plan ahead)-internet unusable on the 4the floor but works perfectly fine if you want to hang out in the lobby (this is the one that killed me.  I need internet access for business which was the point of the trip.  I had to tether to my phone while staying here because the internet was so spotty).  Overall the price was good and the rooms are very nice.  They still have a few kinks to work out but if they can get wi-fi service in all the rooms I'd probably stay here again next time I'm in Houston (assuming I'm flying into IAH and not Hobby).MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Pros:  -New hotel (new carpeting in room, nice furnishings), -good workout facilities (new equipment), --friendly staff-convenient to IAH airport.  Cons:  -poor location (the area does not match the 'new feel' of the hotel), -82 degrees in the hallways (top floor had no A/C in the hallway for the entire week of my stay although it was more of an annoyance than anything else)-hot water takes several minutes to heat up before it's shower temp (plan ahead)-internet unusable on the 4the floor but works perfectly fine if you want to hang out in the lobby (this is the one that killed me.  I need internet access for business which was the point of the trip.  I had to tether to my phone while staying here because the internet was so spotty).  Overall the price was good and the rooms are very nice.  They still have a few kinks to work out but if they can get wi-fi service in all the rooms I'd probably stay here again next time I'm in Houston (assuming I'm flying into IAH and not Hobby).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r296151245-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296151245</t>
+  </si>
+  <si>
+    <t>08/05/2015</t>
+  </si>
+  <si>
+    <t>A great stay</t>
+  </si>
+  <si>
+    <t>I knew I selected the right hotel from the moment the shuttle driver picked me up from the airport. He was friendly and funny and assisted  with scheduling a shuttle in the morning for my training destination. The staff was great during my check in process and the pancakes at night rocked! Thus hotel is in a good location for food. The room was clean and updated. Lawrence the morning shuttle driver  got me to the trading center on time and was friendly so early in the morning. I am sure I'll stay with them again and recommend this location to others traveling to Houston needing to stay near the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>I knew I selected the right hotel from the moment the shuttle driver picked me up from the airport. He was friendly and funny and assisted  with scheduling a shuttle in the morning for my training destination. The staff was great during my check in process and the pancakes at night rocked! Thus hotel is in a good location for food. The room was clean and updated. Lawrence the morning shuttle driver  got me to the trading center on time and was friendly so early in the morning. I am sure I'll stay with them again and recommend this location to others traveling to Houston needing to stay near the airport.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r295975492-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
     <t>295975492</t>
   </si>
   <si>
-    <t>08/05/2015</t>
-  </si>
-  <si>
     <t>Great Location Near Houston's George Bush Intercontinental Airport</t>
   </si>
   <si>
@@ -907,6 +1395,51 @@
     <t>Even if I haven't smoked on my whole life I got a Smoking Fee in this hotel. I spend up to 200 nights a year in hotels and never happened to me before.Apparently I am not the only one.When trying to fix this the General Manager Margaret keeps saying that she is sending you evidence  that she never does anyway.I recommend you to stay in other hotels and if you have any issue check with IHG Guest Relations.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r289006450-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>289006450</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Clean hotel, good service, not so great neighborhood</t>
+  </si>
+  <si>
+    <t>This hotel is very new so it is still in great condition. Room was kept clean, staff was friendly. Only complaint is that the night staff was very loud in the hallways laughing and talking and woke us up at 2:30am.   Food was good for the breakfast. A note on the hotel is that the hotel is great, but the neighborhood is not the best.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is very new so it is still in great condition. Room was kept clean, staff was friendly. Only complaint is that the night staff was very loud in the hallways laughing and talking and woke us up at 2:30am.   Food was good for the breakfast. A note on the hotel is that the hotel is great, but the neighborhood is not the best.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r277232326-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277232326</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Overnight layover.</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express is currently going through a major re-branding.  This hotel is a perfect example.  It has to be the most beautifully designed and decorated HI-EX I've ever stayed at.  It was a true breath of fresh air (both metaphorically and literally).  Usually mid-tier hotels have an old and funny smell.  This hotel was immaculate and smelled fresh.  Bright, clean, modern, and hi-tech.  You can tell this is a new property.  They run a shuttle to the airport (IAH), and it takes about 15 minutes each way.  The hotel isn't in the best area so I wouldn't stay here on a vacation, but for an overnight layover it was fine. The only suggestions I have for the hotel are to fix the doors so they don't slam shut, and to have someone at the front desk at all times.  It seems as if the front desk clerks liked to hide in the back room unless you made it known you were standing there waiting for them.  But other than that it was a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>CPNorthwest, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express is currently going through a major re-branding.  This hotel is a perfect example.  It has to be the most beautifully designed and decorated HI-EX I've ever stayed at.  It was a true breath of fresh air (both metaphorically and literally).  Usually mid-tier hotels have an old and funny smell.  This hotel was immaculate and smelled fresh.  Bright, clean, modern, and hi-tech.  You can tell this is a new property.  They run a shuttle to the airport (IAH), and it takes about 15 minutes each way.  The hotel isn't in the best area so I wouldn't stay here on a vacation, but for an overnight layover it was fine. The only suggestions I have for the hotel are to fix the doors so they don't slam shut, and to have someone at the front desk at all times.  It seems as if the front desk clerks liked to hide in the back room unless you made it known you were standing there waiting for them.  But other than that it was a great stay.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r274786575-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
   </si>
   <si>
@@ -922,15 +1455,6 @@
     <t>Newer hotel with nicely appointed rooms and great shuttle service to the airport.  The only compliant is there was nothing within walking distance for dinner.  However, the shuttle will take you to wherever you want.I will be staying again.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>CPNorthwest, General Manager at Holiday Inn Express &amp; Suites Houston North- IAH Area, responded to this reviewResponded July 9, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 9, 2015</t>
-  </si>
-  <si>
     <t>Newer hotel with nicely appointed rooms and great shuttle service to the airport.  The only compliant is there was nothing within walking distance for dinner.  However, the shuttle will take you to wherever you want.I will be staying again.More</t>
   </si>
   <si>
@@ -986,6 +1510,24 @@
   </si>
   <si>
     <t>This is a newly constructed hotel built on solid fundamentals of surpassing customer expectations. The hotel is neat, clean, organized and most importantly staffed with respectful people. They will go any extent to ensure your stay is comfortable and memorable. Look no other place around if you are in Houston and are looking for a hotel which is in close proximity to IAH airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d6566414-r249919651-Holiday_Inn_Express_Suites_Houston_North_IAH_Area-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>249919651</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t>Clean, modern hotel with amazing staff!</t>
+  </si>
+  <si>
+    <t>I was here for an executive board meeting for a non-profit organization in Jan 2015. This was an amazing place stay because of the proximity to IAH, a complimentary airport shuttle and affordable rate. I was further impressed when I walked in and saw the modern and clean look, as well as the new rooms, clean and amenity-filled bathrooms and large space of the suites. Most of all, I want to send a huge thank you to the staff, especially Nicole, who helped us with every request and never said no. She did it with a smile and made our stay absolutely memorable. Love this hotel! MoreShow less</t>
+  </si>
+  <si>
+    <t>I was here for an executive board meeting for a non-profit organization in Jan 2015. This was an amazing place stay because of the proximity to IAH, a complimentary airport shuttle and affordable rate. I was further impressed when I walked in and saw the modern and clean look, as well as the new rooms, clean and amenity-filled bathrooms and large space of the suites. Most of all, I want to send a huge thank you to the staff, especially Nicole, who helped us with every request and never said no. She did it with a smile and made our stay absolutely memorable. Love this hotel! More</t>
   </si>
 </sst>
 </file>
@@ -1522,12 +2064,8 @@
       <c r="M2" t="n">
         <v>5</v>
       </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1537,10 +2075,14 @@
       <c r="V2" t="n">
         <v>0</v>
       </c>
-      <c r="W2" t="s"/>
-      <c r="X2" t="s"/>
+      <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>53</v>
+      </c>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -1556,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1565,47 +2107,43 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1621,7 +2159,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1630,45 +2168,43 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>5</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>4</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" t="s">
+        <v>63</v>
+      </c>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1684,7 +2220,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1693,47 +2229,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
+      <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>77</v>
-      </c>
-      <c r="X5" t="s">
-        <v>78</v>
-      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -1749,43 +2277,41 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>81</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>82</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>83</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>84</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>70</v>
-      </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
         <v>5</v>
@@ -1794,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
+        <v>85</v>
+      </c>
+      <c r="X6" t="s">
         <v>86</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>87</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="7">
@@ -1816,41 +2342,43 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
         <v>89</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>90</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>91</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>92</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
         <v>93</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
         <v>4</v>
@@ -1858,14 +2386,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>94</v>
-      </c>
-      <c r="X7" t="s">
-        <v>95</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1881,34 +2405,34 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>98</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>99</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>100</v>
       </c>
-      <c r="L8" t="s">
-        <v>101</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
       <c r="O8" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1920,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="X8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="Y8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
@@ -1942,48 +2466,58 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
         <v>107</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>108</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>109</v>
       </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
+      <c r="O9" t="s">
+        <v>94</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>110</v>
+      </c>
+      <c r="X9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y9" t="s">
         <v>112</v>
-      </c>
-      <c r="X9" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1999,58 +2533,56 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
         <v>115</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>116</v>
       </c>
-      <c r="J10" t="s">
+      <c r="L10" t="s">
         <v>117</v>
       </c>
-      <c r="K10" t="s">
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
         <v>118</v>
-      </c>
-      <c r="L10" t="s">
-        <v>119</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>120</v>
       </c>
       <c r="O10" t="s">
         <v>70</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="s"/>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>119</v>
+      </c>
+      <c r="X10" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y10" t="s">
         <v>121</v>
-      </c>
-      <c r="X10" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="11">
@@ -2066,43 +2598,43 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J11" t="s">
         <v>124</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>125</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>126</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>127</v>
       </c>
-      <c r="L11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>129</v>
-      </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
       <c r="R11" t="n">
-        <v>3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
         <v>5</v>
@@ -2111,13 +2643,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
+        <v>128</v>
+      </c>
+      <c r="X11" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y11" t="s">
         <v>130</v>
-      </c>
-      <c r="X11" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="12">
@@ -2133,56 +2665,56 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
         <v>133</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>134</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>135</v>
       </c>
-      <c r="K12" t="s">
-        <v>136</v>
-      </c>
-      <c r="L12" t="s">
-        <v>137</v>
-      </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
@@ -2198,58 +2730,52 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13" t="s">
+        <v>141</v>
+      </c>
+      <c r="K13" t="s">
         <v>142</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L13" t="s">
         <v>143</v>
       </c>
-      <c r="J13" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L13" t="s">
-        <v>146</v>
-      </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="O13" t="s">
         <v>70</v>
       </c>
-      <c r="P13" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>3</v>
-      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
@@ -2265,40 +2791,40 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
         <v>150</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L14" t="s">
         <v>151</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
         <v>152</v>
       </c>
-      <c r="K14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>155</v>
-      </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2308,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
@@ -2330,53 +2856,49 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
         <v>159</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="L15" t="s">
         <v>160</v>
       </c>
-      <c r="J15" t="s">
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
         <v>161</v>
       </c>
-      <c r="K15" t="s">
-        <v>162</v>
-      </c>
-      <c r="L15" t="s">
-        <v>163</v>
-      </c>
-      <c r="M15" t="n">
-        <v>3</v>
-      </c>
-      <c r="N15" t="s">
-        <v>155</v>
-      </c>
       <c r="O15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
         <v>164</v>
@@ -2418,33 +2940,25 @@
       <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="s">
-        <v>170</v>
-      </c>
-      <c r="O16" t="s">
-        <v>60</v>
-      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
+        <v>170</v>
+      </c>
+      <c r="X16" t="s">
         <v>171</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>172</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="17">
@@ -2460,52 +2974,58 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>174</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>175</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>176</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>177</v>
       </c>
-      <c r="L17" t="s">
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>152</v>
+      </c>
+      <c r="O17" t="s">
+        <v>94</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
         <v>178</v>
       </c>
-      <c r="M17" t="n">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>170</v>
-      </c>
-      <c r="O17" t="s">
-        <v>70</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
-      <c r="S17" t="s"/>
-      <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>179</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>180</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="18">
@@ -2521,52 +3041,58 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
         <v>182</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>183</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>184</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>185</v>
       </c>
-      <c r="L18" t="s">
-        <v>186</v>
-      </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="O18" t="s">
-        <v>103</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -2582,7 +3108,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2591,43 +3117,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="O19" t="s">
-        <v>70</v>
-      </c>
-      <c r="P19" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20">
@@ -2643,7 +3175,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2652,29 +3184,31 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="n">
         <v>5</v>
       </c>
@@ -2686,13 +3220,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
@@ -2708,7 +3242,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2717,43 +3251,47 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="O21" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="X21" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Y21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22">
@@ -2769,7 +3307,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2778,49 +3316,49 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="J22" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="23">
@@ -2836,7 +3374,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2845,32 +3383,32 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
         <v>70</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>5</v>
-      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
         <v>5</v>
@@ -2878,10 +3416,14 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" t="s">
+        <v>230</v>
+      </c>
       <c r="Y23" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -2897,7 +3439,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2906,49 +3448,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>228</v>
       </c>
-      <c r="J24" t="s">
-        <v>229</v>
-      </c>
-      <c r="K24" t="s">
-        <v>230</v>
-      </c>
-      <c r="L24" t="s">
-        <v>231</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>232</v>
-      </c>
       <c r="O24" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="X24" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Y24" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25">
@@ -2964,7 +3500,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2973,43 +3509,47 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="X25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26">
@@ -3025,7 +3565,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3034,49 +3574,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" t="s">
+        <v>251</v>
+      </c>
+      <c r="K26" t="s">
+        <v>252</v>
+      </c>
+      <c r="L26" t="s">
+        <v>253</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
         <v>245</v>
       </c>
-      <c r="J26" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" t="s">
-        <v>248</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>249</v>
-      </c>
       <c r="O26" t="s">
-        <v>103</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="X26" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="Y26" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
@@ -3092,7 +3630,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3101,43 +3639,47 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="J27" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K27" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L27" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="X27" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Y27" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3695,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3162,49 +3704,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="J28" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="K28" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="O28" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="X28" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Y28" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29">
@@ -3220,7 +3756,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3229,49 +3765,43 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O29" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="X29" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Y29" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
@@ -3287,7 +3817,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3296,47 +3826,43 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="J30" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="X30" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="31">
@@ -3352,7 +3878,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3361,49 +3887,43 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>3</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="X31" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="Y31" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32">
@@ -3419,7 +3939,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3428,49 +3948,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="n">
-        <v>5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="n">
-        <v>5</v>
-      </c>
+      <c r="U32" t="s"/>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="X32" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Y32" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
@@ -3486,7 +4000,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3495,27 +4009,29 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="J33" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K33" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L33" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>305</v>
+        <v>260</v>
       </c>
       <c r="O33" t="s">
-        <v>103</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>70</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="n">
         <v>5</v>
       </c>
@@ -3572,25 +4088,23 @@
         <v>313</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
         <v>314</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
-      </c>
-      <c r="P34" t="s"/>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="s"/>
       <c r="R34" t="s"/>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3603,6 +4117,1556 @@
       </c>
       <c r="Y34" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>319</v>
+      </c>
+      <c r="J35" t="s">
+        <v>320</v>
+      </c>
+      <c r="K35" t="s">
+        <v>321</v>
+      </c>
+      <c r="L35" t="s">
+        <v>322</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>323</v>
+      </c>
+      <c r="O35" t="s">
+        <v>84</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>324</v>
+      </c>
+      <c r="X35" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>327</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>328</v>
+      </c>
+      <c r="J36" t="s">
+        <v>329</v>
+      </c>
+      <c r="K36" t="s">
+        <v>330</v>
+      </c>
+      <c r="L36" t="s">
+        <v>331</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>323</v>
+      </c>
+      <c r="O36" t="s">
+        <v>94</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>332</v>
+      </c>
+      <c r="X36" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>335</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>336</v>
+      </c>
+      <c r="J37" t="s">
+        <v>337</v>
+      </c>
+      <c r="K37" t="s">
+        <v>338</v>
+      </c>
+      <c r="L37" t="s">
+        <v>339</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>269</v>
+      </c>
+      <c r="O37" t="s">
+        <v>94</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>341</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>342</v>
+      </c>
+      <c r="J38" t="s">
+        <v>343</v>
+      </c>
+      <c r="K38" t="s">
+        <v>344</v>
+      </c>
+      <c r="L38" t="s">
+        <v>345</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>346</v>
+      </c>
+      <c r="O38" t="s">
+        <v>84</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>347</v>
+      </c>
+      <c r="X38" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>350</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>351</v>
+      </c>
+      <c r="J39" t="s">
+        <v>352</v>
+      </c>
+      <c r="K39" t="s">
+        <v>353</v>
+      </c>
+      <c r="L39" t="s">
+        <v>354</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>346</v>
+      </c>
+      <c r="O39" t="s">
+        <v>94</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>355</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>356</v>
+      </c>
+      <c r="J40" t="s">
+        <v>352</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>346</v>
+      </c>
+      <c r="O40" t="s">
+        <v>94</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>360</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>361</v>
+      </c>
+      <c r="J41" t="s">
+        <v>362</v>
+      </c>
+      <c r="K41" t="s">
+        <v>363</v>
+      </c>
+      <c r="L41" t="s">
+        <v>364</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>365</v>
+      </c>
+      <c r="O41" t="s">
+        <v>94</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>366</v>
+      </c>
+      <c r="X41" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>369</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>370</v>
+      </c>
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>372</v>
+      </c>
+      <c r="L42" t="s">
+        <v>373</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>365</v>
+      </c>
+      <c r="O42" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>374</v>
+      </c>
+      <c r="X42" t="s">
+        <v>375</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>377</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>378</v>
+      </c>
+      <c r="J43" t="s">
+        <v>379</v>
+      </c>
+      <c r="K43" t="s">
+        <v>380</v>
+      </c>
+      <c r="L43" t="s">
+        <v>381</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>382</v>
+      </c>
+      <c r="O43" t="s">
+        <v>94</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>383</v>
+      </c>
+      <c r="X43" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>386</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>387</v>
+      </c>
+      <c r="J44" t="s">
+        <v>388</v>
+      </c>
+      <c r="K44" t="s">
+        <v>389</v>
+      </c>
+      <c r="L44" t="s">
+        <v>390</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>382</v>
+      </c>
+      <c r="O44" t="s">
+        <v>84</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>383</v>
+      </c>
+      <c r="X44" t="s">
+        <v>384</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>392</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>393</v>
+      </c>
+      <c r="J45" t="s">
+        <v>394</v>
+      </c>
+      <c r="K45" t="s">
+        <v>395</v>
+      </c>
+      <c r="L45" t="s">
+        <v>396</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>397</v>
+      </c>
+      <c r="O45" t="s">
+        <v>61</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>398</v>
+      </c>
+      <c r="X45" t="s">
+        <v>399</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>402</v>
+      </c>
+      <c r="J46" t="s">
+        <v>403</v>
+      </c>
+      <c r="K46" t="s">
+        <v>404</v>
+      </c>
+      <c r="L46" t="s">
+        <v>405</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>397</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>406</v>
+      </c>
+      <c r="X46" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>409</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>410</v>
+      </c>
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47" t="s">
+        <v>412</v>
+      </c>
+      <c r="L47" t="s">
+        <v>413</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>414</v>
+      </c>
+      <c r="O47" t="s">
+        <v>84</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>415</v>
+      </c>
+      <c r="X47" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>418</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>419</v>
+      </c>
+      <c r="J48" t="s">
+        <v>420</v>
+      </c>
+      <c r="K48" t="s">
+        <v>421</v>
+      </c>
+      <c r="L48" t="s">
+        <v>422</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>423</v>
+      </c>
+      <c r="O48" t="s">
+        <v>94</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>415</v>
+      </c>
+      <c r="X48" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>425</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>426</v>
+      </c>
+      <c r="J49" t="s">
+        <v>427</v>
+      </c>
+      <c r="K49" t="s">
+        <v>428</v>
+      </c>
+      <c r="L49" t="s">
+        <v>429</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>415</v>
+      </c>
+      <c r="X49" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>431</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>432</v>
+      </c>
+      <c r="J50" t="s">
+        <v>427</v>
+      </c>
+      <c r="K50" t="s">
+        <v>433</v>
+      </c>
+      <c r="L50" t="s">
+        <v>434</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>397</v>
+      </c>
+      <c r="O50" t="s">
+        <v>94</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>415</v>
+      </c>
+      <c r="X50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>436</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>437</v>
+      </c>
+      <c r="J51" t="s">
+        <v>438</v>
+      </c>
+      <c r="K51" t="s">
+        <v>439</v>
+      </c>
+      <c r="L51" t="s">
+        <v>440</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>397</v>
+      </c>
+      <c r="O51" t="s">
+        <v>61</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>415</v>
+      </c>
+      <c r="X51" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>442</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>443</v>
+      </c>
+      <c r="J52" t="s">
+        <v>444</v>
+      </c>
+      <c r="K52" t="s">
+        <v>445</v>
+      </c>
+      <c r="L52" t="s">
+        <v>446</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>447</v>
+      </c>
+      <c r="O52" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>448</v>
+      </c>
+      <c r="X52" t="s">
+        <v>449</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>453</v>
+      </c>
+      <c r="K53" t="s">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s">
+        <v>455</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>423</v>
+      </c>
+      <c r="O53" t="s">
+        <v>94</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>415</v>
+      </c>
+      <c r="X53" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>457</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>458</v>
+      </c>
+      <c r="J54" t="s">
+        <v>459</v>
+      </c>
+      <c r="K54" t="s">
+        <v>460</v>
+      </c>
+      <c r="L54" t="s">
+        <v>461</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>462</v>
+      </c>
+      <c r="O54" t="s">
+        <v>94</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>463</v>
+      </c>
+      <c r="X54" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>466</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>467</v>
+      </c>
+      <c r="J55" t="s">
+        <v>468</v>
+      </c>
+      <c r="K55" t="s">
+        <v>469</v>
+      </c>
+      <c r="L55" t="s">
+        <v>470</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>462</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>463</v>
+      </c>
+      <c r="X55" t="s">
+        <v>464</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>472</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>473</v>
+      </c>
+      <c r="J56" t="s">
+        <v>474</v>
+      </c>
+      <c r="K56" t="s">
+        <v>475</v>
+      </c>
+      <c r="L56" t="s">
+        <v>476</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>477</v>
+      </c>
+      <c r="O56" t="s">
+        <v>61</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>478</v>
+      </c>
+      <c r="X56" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>481</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>482</v>
+      </c>
+      <c r="J57" t="s">
+        <v>483</v>
+      </c>
+      <c r="K57" t="s">
+        <v>484</v>
+      </c>
+      <c r="L57" t="s">
+        <v>485</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>486</v>
+      </c>
+      <c r="O57" t="s">
+        <v>94</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>487</v>
+      </c>
+      <c r="X57" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>62962</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>490</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>491</v>
+      </c>
+      <c r="J58" t="s">
+        <v>492</v>
+      </c>
+      <c r="K58" t="s">
+        <v>493</v>
+      </c>
+      <c r="L58" t="s">
+        <v>494</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>486</v>
+      </c>
+      <c r="O58" t="s">
+        <v>94</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>487</v>
+      </c>
+      <c r="X58" t="s">
+        <v>488</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>
